--- a/labs/lab1/results.xlsx
+++ b/labs/lab1/results.xlsx
@@ -19,25 +19,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Epoch_28</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Epoch_14</t>
+  </si>
+  <si>
+    <t>Epoch_GPU</t>
+  </si>
+  <si>
+    <t>batch-size = 32</t>
+  </si>
+  <si>
+    <t>batch-size = 64</t>
+  </si>
+  <si>
+    <t>batch-size = 80</t>
+  </si>
+  <si>
+    <t>CPU_14</t>
+  </si>
+  <si>
+    <t>CPU_28</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>CPU with 14 threads</t>
+  </si>
+  <si>
+    <t>CPU with 28 threads</t>
+  </si>
+  <si>
+    <t>Batch size = 32</t>
+  </si>
+  <si>
+    <t>Batch size = 64</t>
+  </si>
+  <si>
+    <t>Batch size = 80</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -48,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -56,12 +95,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,29 +443,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1">
-        <v>32</v>
-      </c>
-      <c r="C1">
-        <v>64</v>
-      </c>
-      <c r="D1">
-        <v>80</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
       </c>
       <c r="G1">
         <v>32</v>
@@ -375,8 +473,20 @@
       <c r="I1">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>32</v>
+      </c>
+      <c r="N1">
+        <v>64</v>
+      </c>
+      <c r="P1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -401,8 +511,29 @@
       <c r="I2">
         <v>0.42630000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.41920000000000002</v>
+      </c>
+      <c r="M2">
+        <v>539.29999999999995</v>
+      </c>
+      <c r="N2">
+        <v>0.42320000000000002</v>
+      </c>
+      <c r="O2">
+        <v>291</v>
+      </c>
+      <c r="P2">
+        <v>0.41920000000000002</v>
+      </c>
+      <c r="Q2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -427,8 +558,29 @@
       <c r="I3">
         <v>0.42549999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.40350000000000003</v>
+      </c>
+      <c r="M3">
+        <v>538</v>
+      </c>
+      <c r="N3">
+        <v>0.42480000000000001</v>
+      </c>
+      <c r="O3">
+        <v>291</v>
+      </c>
+      <c r="P3">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -453,8 +605,29 @@
       <c r="I4">
         <v>0.42959999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.39850000000000002</v>
+      </c>
+      <c r="M4">
+        <v>538</v>
+      </c>
+      <c r="N4">
+        <v>0.43049999999999999</v>
+      </c>
+      <c r="O4">
+        <v>291</v>
+      </c>
+      <c r="P4">
+        <v>0.42670000000000002</v>
+      </c>
+      <c r="Q4">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -476,8 +649,29 @@
       <c r="I5">
         <v>0.43369999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="M5">
+        <v>539</v>
+      </c>
+      <c r="N5">
+        <v>0.43190000000000001</v>
+      </c>
+      <c r="O5">
+        <v>291</v>
+      </c>
+      <c r="P5">
+        <v>0.42509999999999998</v>
+      </c>
+      <c r="Q5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -495,6 +689,275 @@
       </c>
       <c r="I6">
         <v>0.43030000000000002</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>0.1077</v>
+      </c>
+      <c r="M6">
+        <v>538</v>
+      </c>
+      <c r="N6">
+        <v>0.43280000000000002</v>
+      </c>
+      <c r="O6">
+        <v>291</v>
+      </c>
+      <c r="P6">
+        <v>0.43230000000000002</v>
+      </c>
+      <c r="Q6">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>AVERAGE(B2:B6)</f>
+        <v>0.31073333333333336</v>
+      </c>
+      <c r="C7">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.425925</v>
+      </c>
+      <c r="D7">
+        <f>AVERAGE(D2:D6)</f>
+        <v>0.42626000000000008</v>
+      </c>
+      <c r="G7">
+        <f>AVERAGE(G2:G6)</f>
+        <v>0.41105999999999998</v>
+      </c>
+      <c r="H7">
+        <f>AVERAGE(H2:H6)</f>
+        <v>0.42788000000000004</v>
+      </c>
+      <c r="I7">
+        <f>AVERAGE(I2:I6)</f>
+        <v>0.42908000000000002</v>
+      </c>
+      <c r="L7">
+        <f>AVERAGE(L2:L6)</f>
+        <v>0.34758</v>
+      </c>
+      <c r="M7">
+        <v>538</v>
+      </c>
+      <c r="N7">
+        <f>AVERAGE(N2:N6)</f>
+        <v>0.42864000000000002</v>
+      </c>
+      <c r="O7">
+        <v>291</v>
+      </c>
+      <c r="P7">
+        <f>AVERAGE(P2:P6)</f>
+        <v>0.42400000000000004</v>
+      </c>
+      <c r="Q7">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.31073333333333336</v>
+      </c>
+      <c r="C8">
+        <v>0.425925</v>
+      </c>
+      <c r="D8">
+        <v>0.42626000000000008</v>
+      </c>
+      <c r="G8">
+        <v>0.41105999999999998</v>
+      </c>
+      <c r="H8">
+        <v>0.42788000000000004</v>
+      </c>
+      <c r="I8">
+        <v>0.42908000000000002</v>
+      </c>
+      <c r="L8">
+        <v>0.34758</v>
+      </c>
+      <c r="M8">
+        <v>0.42864000000000002</v>
+      </c>
+      <c r="N8">
+        <v>0.42400000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>0.34758</v>
+      </c>
+      <c r="M9">
+        <v>0.42864000000000002</v>
+      </c>
+      <c r="N9">
+        <v>0.42400000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>0.41105999999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.31073333333333336</v>
+      </c>
+      <c r="D11">
+        <v>0.34758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>0.42788000000000004</v>
+      </c>
+      <c r="C12">
+        <v>0.425925</v>
+      </c>
+      <c r="D12">
+        <v>0.42864000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <v>0.42908000000000002</v>
+      </c>
+      <c r="C13">
+        <v>0.42626000000000008</v>
+      </c>
+      <c r="D13">
+        <v>0.42400000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>0.40210000000000001</v>
+      </c>
+      <c r="C16">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.1077</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>0.43030000000000002</v>
+      </c>
+      <c r="C17">
+        <v>0.42949999999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.43280000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>0.43030000000000002</v>
+      </c>
+      <c r="C18">
+        <v>0.43530000000000002</v>
+      </c>
+      <c r="D18">
+        <v>0.43230000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.40210000000000001</v>
+      </c>
+      <c r="C21" s="4">
+        <v>8.9800000000000005E-2</v>
+      </c>
+      <c r="D21">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.43030000000000002</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.42949999999999999</v>
+      </c>
+      <c r="D22">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.43030000000000002</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.43530000000000002</v>
+      </c>
+      <c r="D23">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/labs/lab1/results.xlsx
+++ b/labs/lab1/results.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="435">
+  <si>
+    <t>Epoch_28</t>
+  </si>
   <si>
     <t>Epoch_14</t>
   </si>
@@ -58,25 +62,1282 @@
   </si>
   <si>
     <t>Batch size = 80</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.5604loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.2089loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.9579loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4565loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.3669loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8223loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8142loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6769loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1277loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.6442loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1595loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.9456loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.8456loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.6108loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0723loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2082loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7196loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5032loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.7964loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.4475loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.4060loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8340loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.0675loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4492loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8724loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.0852loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.2020loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7971loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1773loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1672loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6852loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1271loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0573loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0196loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2884loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6516loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7522loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6030loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.0152loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8761 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8534 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0687 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.4579 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5604 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.9164 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.7494 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7689 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3178 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5804 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.4429 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5659 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.3901 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.0700 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4807 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6061 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7924 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.0283 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7641 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8383 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0477 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.0883 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7265 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1151 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6008 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.0356 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7980 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6947 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5393 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.9919 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4576 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5145 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0035 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.0912 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8608 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.3455 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.4511 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.0526 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4077 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7720 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.0924 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1079 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6137 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3146 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4143 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6527 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1056 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3350 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.9528 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5250 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.4012 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8551 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.0666 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1913 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.8264 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1842 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0776 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1319 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6755 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2894 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2295 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.9839 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.0257 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5654 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.0061 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2188 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7736 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1817 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5212 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6174 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4522 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1117 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.6607 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0194 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.2675 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1097 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.3915 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.5610 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5009 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1974 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8923 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.9184 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1965 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1837 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4829 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.2202 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.9857 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.7403 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0999 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5073 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.0307 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.0970 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.6272 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7629 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6379 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3171 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7062 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6701 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1082 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.3377 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5259 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3338 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.9250 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.9129 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1292 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3707 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0534 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1825 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5272 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5104 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2484 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.1071 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5613 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.0890 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1656 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8742 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5182 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8712 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3874 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1695 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1985 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4025 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6341 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7505 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0670 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0652 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2514 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7707 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3433 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.0940 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8846 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8357 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4660 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5598 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4974 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2400 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2283 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3253 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.6820 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.3684 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.3489 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.8917 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.0152 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1769 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2521 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.9950 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7058 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6916 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5396 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5113 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8128 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.9291 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1376 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.4272 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0211 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1618 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.7912 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4392 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7646 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3480 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.9029 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.4488 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.0581 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.9764 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.2439 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.8437 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7697 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1746 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7766 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7940 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1637 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1516 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6678 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1994 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.4609 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.9707 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4609 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8261 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.2461 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4888 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1651 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.9522 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.9225 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1976 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8686 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7230 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.5070 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0757 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7510 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8840 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8344 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6571 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1292 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8119 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.0721 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.7590 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2293 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8133 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.6139 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5526 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.2110 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.6043 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.8696 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7494 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.7883 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.2824 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8566 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.3639 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5963 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7113 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1632 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.5439 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2210 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1526 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0539 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2685 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.9333 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5232 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6086 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.3448 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2551 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.4471 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5375 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6367 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4375 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6841 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.7386 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1705 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6993 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6324 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5836 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.8800 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.2476 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5534 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.9078 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2566 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.3213 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.5417 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.9773 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.9433 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.6557 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6793loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3363loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.9780loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2950loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0656loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8124loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.8322loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5867loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5067loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3348loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6074loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5346loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6236loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6522loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7056loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2273loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6102loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2354loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6999loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.9063loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0604loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5694loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2689 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1548 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4994 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8141 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0827 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.9576 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4038 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3691 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7639 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5078 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7161 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.9087 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2465 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6602 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0238 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.9455 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1581 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6563 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4162 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7328 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4086 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2432 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8877 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5457 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5694 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2528 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3325 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4396 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5861 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5189 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2029 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5032 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.5872 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3837 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1915 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5155 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5219 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8412 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4172 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4296 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4544 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0105 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7186 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0967 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.9934 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.8986 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6608 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2867 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.6252 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3788 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5953 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3572 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2790 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8306 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.8142 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1983 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5606 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7454 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6713 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5559 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2226 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.8188 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5178 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3214 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.9703 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4140 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5564 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4941 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0400 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3923 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.9793 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2144 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7111 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6032 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0699 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1476 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0120 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5008 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.0232 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6187 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4200 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7895 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.9032 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1927 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1361 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4153 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1888 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5400 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5827 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7351 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.7915 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6407 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4808 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7054 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4174 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6813 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5001 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3117 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5734 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2822 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5245 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2258 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2663 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2412 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.5092 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8929 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.6342 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.8028 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2284 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.7084 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6159 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6263 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3711 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6980 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3555 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4179 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4213 loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6265loss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,7 +1348,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -95,74 +1356,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,374 +1642,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="R1" sqref="R1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="G1">
-        <v>32</v>
-      </c>
-      <c r="H1">
-        <v>64</v>
-      </c>
-      <c r="I1">
-        <v>80</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1">
-        <v>32</v>
-      </c>
-      <c r="N1">
-        <v>64</v>
-      </c>
-      <c r="P1">
-        <v>80</v>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.41649999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="E2">
+        <v>1692</v>
+      </c>
+      <c r="F2">
+        <v>0.42630000000000001</v>
+      </c>
+      <c r="G2">
+        <v>1542</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>0.42230000000000001</v>
       </c>
-      <c r="C2">
+      <c r="L2">
         <v>0.42159999999999997</v>
       </c>
-      <c r="D2">
+      <c r="N2">
         <v>0.41570000000000001</v>
       </c>
-      <c r="F2">
+      <c r="Q2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>0.41649999999999998</v>
-      </c>
-      <c r="H2">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="I2">
-        <v>0.42630000000000001</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+      <c r="R2">
         <v>0.41920000000000002</v>
       </c>
-      <c r="M2">
+      <c r="S2">
         <v>539.29999999999995</v>
       </c>
-      <c r="N2">
+      <c r="T2">
         <v>0.42320000000000002</v>
       </c>
-      <c r="O2">
+      <c r="U2">
         <v>291</v>
       </c>
-      <c r="P2">
+      <c r="V2">
         <v>0.41920000000000002</v>
       </c>
-      <c r="Q2">
+      <c r="W2">
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0.4153</v>
+      </c>
+      <c r="D3">
+        <v>0.43</v>
+      </c>
+      <c r="E3">
+        <v>1652</v>
+      </c>
+      <c r="F3">
+        <v>0.42549999999999999</v>
+      </c>
+      <c r="G3">
+        <v>1502</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>0.42009999999999997</v>
       </c>
-      <c r="C3">
+      <c r="L3">
         <v>0.42759999999999998</v>
       </c>
-      <c r="D3">
+      <c r="N3">
         <v>0.42599999999999999</v>
       </c>
-      <c r="F3">
+      <c r="Q3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>0.4153</v>
-      </c>
-      <c r="H3">
-        <v>0.43</v>
-      </c>
-      <c r="I3">
-        <v>0.42549999999999999</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
+      <c r="R3">
         <v>0.40350000000000003</v>
       </c>
-      <c r="M3">
+      <c r="S3">
         <v>538</v>
       </c>
-      <c r="N3">
+      <c r="T3">
         <v>0.42480000000000001</v>
       </c>
-      <c r="O3">
+      <c r="U3">
         <v>291</v>
       </c>
-      <c r="P3">
+      <c r="V3">
         <v>0.41670000000000001</v>
       </c>
-      <c r="Q3">
+      <c r="W3">
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0.42180000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.42380000000000001</v>
+      </c>
+      <c r="E4">
+        <v>2011</v>
+      </c>
+      <c r="F4">
+        <v>0.42959999999999998</v>
+      </c>
+      <c r="G4">
+        <v>1516</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
         <v>8.9800000000000005E-2</v>
       </c>
-      <c r="C4">
+      <c r="L4">
         <v>0.42499999999999999</v>
       </c>
-      <c r="D4">
+      <c r="N4">
         <v>0.42959999999999998</v>
       </c>
-      <c r="F4">
+      <c r="Q4">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>0.42180000000000001</v>
-      </c>
-      <c r="H4">
-        <v>0.42380000000000001</v>
-      </c>
-      <c r="I4">
-        <v>0.42959999999999998</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
+      <c r="R4">
         <v>0.39850000000000002</v>
       </c>
-      <c r="M4">
+      <c r="S4">
         <v>538</v>
       </c>
-      <c r="N4">
+      <c r="T4">
         <v>0.43049999999999999</v>
       </c>
-      <c r="O4">
+      <c r="U4">
         <v>291</v>
       </c>
-      <c r="P4">
+      <c r="V4">
         <v>0.42670000000000002</v>
       </c>
-      <c r="Q4">
+      <c r="W4">
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="B5">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.43130000000000002</v>
+      </c>
+      <c r="E5">
+        <v>2388</v>
+      </c>
+      <c r="F5">
+        <v>0.43369999999999997</v>
+      </c>
+      <c r="G5">
+        <v>1700</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>0.42949999999999999</v>
       </c>
-      <c r="D5">
+      <c r="N5">
         <v>0.42470000000000002</v>
       </c>
-      <c r="F5">
+      <c r="Q5">
         <v>3</v>
       </c>
-      <c r="G5">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="H5">
-        <v>0.43130000000000002</v>
-      </c>
-      <c r="I5">
-        <v>0.43369999999999997</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
+      <c r="R5">
         <v>0.40899999999999997</v>
       </c>
-      <c r="M5">
+      <c r="S5">
         <v>539</v>
       </c>
-      <c r="N5">
+      <c r="T5">
         <v>0.43190000000000001</v>
       </c>
-      <c r="O5">
+      <c r="U5">
         <v>291</v>
       </c>
-      <c r="P5">
+      <c r="V5">
         <v>0.42509999999999998</v>
       </c>
-      <c r="Q5">
+      <c r="W5">
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0.40210000000000001</v>
+      </c>
       <c r="D6">
+        <v>0.43030000000000002</v>
+      </c>
+      <c r="E6">
+        <v>3150</v>
+      </c>
+      <c r="F6">
+        <v>0.43030000000000002</v>
+      </c>
+      <c r="G6">
+        <v>2958</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="N6">
         <v>0.43530000000000002</v>
       </c>
-      <c r="F6">
+      <c r="Q6">
         <v>4</v>
       </c>
-      <c r="G6">
-        <v>0.40210000000000001</v>
-      </c>
-      <c r="H6">
-        <v>0.43030000000000002</v>
-      </c>
-      <c r="I6">
-        <v>0.43030000000000002</v>
-      </c>
-      <c r="K6">
-        <v>4</v>
-      </c>
-      <c r="L6">
+      <c r="R6">
         <v>0.1077</v>
       </c>
-      <c r="M6">
+      <c r="S6">
         <v>538</v>
       </c>
-      <c r="N6">
+      <c r="T6">
         <v>0.43280000000000002</v>
       </c>
-      <c r="O6">
+      <c r="U6">
         <v>291</v>
       </c>
-      <c r="P6">
+      <c r="V6">
         <v>0.43230000000000002</v>
       </c>
-      <c r="Q6">
+      <c r="W6">
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>AVERAGE(B2:B6)</f>
-        <v>0.31073333333333336</v>
-      </c>
-      <c r="C7">
-        <f>AVERAGE(C2:C6)</f>
-        <v>0.425925</v>
+        <v>0.41105999999999998</v>
       </c>
       <c r="D7">
         <f>AVERAGE(D2:D6)</f>
-        <v>0.42626000000000008</v>
+        <v>0.42788000000000004</v>
+      </c>
+      <c r="E7">
+        <f>AVERAGE(E2:E6)</f>
+        <v>2178.6</v>
+      </c>
+      <c r="F7">
+        <f>AVERAGE(F2:F6)</f>
+        <v>0.42908000000000002</v>
       </c>
       <c r="G7">
         <f>AVERAGE(G2:G6)</f>
-        <v>0.41105999999999998</v>
-      </c>
-      <c r="H7">
-        <f>AVERAGE(H2:H6)</f>
-        <v>0.42788000000000004</v>
-      </c>
-      <c r="I7">
-        <f>AVERAGE(I2:I6)</f>
-        <v>0.42908000000000002</v>
+        <v>1843.6</v>
+      </c>
+      <c r="J7">
+        <f>AVERAGE(J2:J6)</f>
+        <v>0.31073333333333336</v>
       </c>
       <c r="L7">
         <f>AVERAGE(L2:L6)</f>
-        <v>0.34758</v>
-      </c>
-      <c r="M7">
-        <v>538</v>
+        <v>0.425925</v>
       </c>
       <c r="N7">
         <f>AVERAGE(N2:N6)</f>
+        <v>0.42626000000000008</v>
+      </c>
+      <c r="R7">
+        <f>AVERAGE(R2:R6)</f>
+        <v>0.34758</v>
+      </c>
+      <c r="S7">
+        <v>538</v>
+      </c>
+      <c r="T7">
+        <f>AVERAGE(T2:T6)</f>
         <v>0.42864000000000002</v>
       </c>
-      <c r="O7">
+      <c r="U7">
         <v>291</v>
       </c>
-      <c r="P7">
-        <f>AVERAGE(P2:P6)</f>
+      <c r="V7">
+        <f>AVERAGE(V2:V6)</f>
         <v>0.42400000000000004</v>
       </c>
-      <c r="Q7">
+      <c r="W7">
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8">
+        <v>0.41105999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.42788000000000004</v>
+      </c>
+      <c r="F8">
+        <v>0.42908000000000002</v>
+      </c>
+      <c r="J8">
         <v>0.31073333333333336</v>
       </c>
-      <c r="C8">
+      <c r="L8">
         <v>0.425925</v>
       </c>
-      <c r="D8">
+      <c r="N8">
         <v>0.42626000000000008</v>
       </c>
-      <c r="G8">
-        <v>0.41105999999999998</v>
-      </c>
-      <c r="H8">
-        <v>0.42788000000000004</v>
-      </c>
-      <c r="I8">
-        <v>0.42908000000000002</v>
-      </c>
-      <c r="L8">
+      <c r="R8">
         <v>0.34758</v>
       </c>
-      <c r="M8">
+      <c r="S8">
         <v>0.42864000000000002</v>
       </c>
-      <c r="N8">
+      <c r="T8">
         <v>0.42400000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L9">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="S9">
         <v>0.34758</v>
       </c>
-      <c r="M9">
+      <c r="T9">
         <v>0.42864000000000002</v>
       </c>
-      <c r="N9">
+      <c r="U9">
         <v>0.42400000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32</v>
       </c>
@@ -824,7 +2064,7 @@
         <v>0.34758</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>64</v>
       </c>
@@ -838,7 +2078,7 @@
         <v>0.42864000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>80</v>
       </c>
@@ -852,18 +2092,18 @@
         <v>0.42400000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>32</v>
       </c>
@@ -905,55 +2145,53 @@
         <v>0.43230000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
         <v>0.40210000000000001</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21">
         <v>8.9800000000000005E-2</v>
       </c>
       <c r="D21">
         <v>538</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
         <v>0.43030000000000002</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22">
         <v>0.42949999999999999</v>
       </c>
       <c r="D22">
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
         <v>0.43030000000000002</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23">
         <v>0.43530000000000002</v>
       </c>
       <c r="D23">
@@ -964,4 +2202,1310 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:JY2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:285" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>130</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>131</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>132</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>133</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>134</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>135</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>136</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>137</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>138</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>140</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>141</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>142</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>147</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>148</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>155</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>156</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>157</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>158</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>159</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>160</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>161</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>162</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>163</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>164</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>165</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>166</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>167</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>168</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>132</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>180</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>181</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>182</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>183</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>184</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>185</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>186</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>187</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>188</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>189</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>190</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>191</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>192</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>193</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>196</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>197</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>198</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>199</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>206</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>207</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>208</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>209</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>210</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>211</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>212</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>213</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>214</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>215</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>216</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>217</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>218</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>219</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>223</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>232</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>233</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>234</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>235</v>
+      </c>
+      <c r="HP1" t="s">
+        <v>236</v>
+      </c>
+      <c r="HQ1" t="s">
+        <v>237</v>
+      </c>
+      <c r="HR1" t="s">
+        <v>238</v>
+      </c>
+      <c r="HS1" t="s">
+        <v>239</v>
+      </c>
+      <c r="HT1" t="s">
+        <v>240</v>
+      </c>
+      <c r="HU1" t="s">
+        <v>241</v>
+      </c>
+      <c r="HV1" t="s">
+        <v>242</v>
+      </c>
+      <c r="HW1" t="s">
+        <v>243</v>
+      </c>
+      <c r="HX1" t="s">
+        <v>244</v>
+      </c>
+      <c r="HY1" t="s">
+        <v>245</v>
+      </c>
+      <c r="HZ1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IA1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IB1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IC1" t="s">
+        <v>249</v>
+      </c>
+      <c r="ID1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IE1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IF1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IG1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IH1" t="s">
+        <v>254</v>
+      </c>
+      <c r="II1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IJ1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IK1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IL1" t="s">
+        <v>258</v>
+      </c>
+      <c r="IM1" t="s">
+        <v>259</v>
+      </c>
+      <c r="IN1" t="s">
+        <v>260</v>
+      </c>
+      <c r="IO1" t="s">
+        <v>261</v>
+      </c>
+      <c r="IP1" t="s">
+        <v>262</v>
+      </c>
+      <c r="IQ1" t="s">
+        <v>263</v>
+      </c>
+      <c r="IR1" t="s">
+        <v>264</v>
+      </c>
+      <c r="IS1" t="s">
+        <v>265</v>
+      </c>
+      <c r="IT1" t="s">
+        <v>266</v>
+      </c>
+      <c r="IU1" t="s">
+        <v>267</v>
+      </c>
+      <c r="IV1" t="s">
+        <v>268</v>
+      </c>
+      <c r="IW1" t="s">
+        <v>269</v>
+      </c>
+      <c r="IX1" t="s">
+        <v>270</v>
+      </c>
+      <c r="IY1" t="s">
+        <v>271</v>
+      </c>
+      <c r="IZ1" t="s">
+        <v>272</v>
+      </c>
+      <c r="JA1" t="s">
+        <v>273</v>
+      </c>
+      <c r="JB1" t="s">
+        <v>274</v>
+      </c>
+      <c r="JC1" t="s">
+        <v>275</v>
+      </c>
+      <c r="JD1" t="s">
+        <v>276</v>
+      </c>
+      <c r="JE1" t="s">
+        <v>277</v>
+      </c>
+      <c r="JF1" t="s">
+        <v>278</v>
+      </c>
+      <c r="JG1" t="s">
+        <v>279</v>
+      </c>
+      <c r="JH1" t="s">
+        <v>280</v>
+      </c>
+      <c r="JI1" t="s">
+        <v>281</v>
+      </c>
+      <c r="JJ1" t="s">
+        <v>282</v>
+      </c>
+      <c r="JK1" t="s">
+        <v>283</v>
+      </c>
+      <c r="JL1" t="s">
+        <v>214</v>
+      </c>
+      <c r="JM1" t="s">
+        <v>284</v>
+      </c>
+      <c r="JN1" t="s">
+        <v>285</v>
+      </c>
+      <c r="JO1" t="s">
+        <v>286</v>
+      </c>
+      <c r="JP1" t="s">
+        <v>287</v>
+      </c>
+      <c r="JQ1" t="s">
+        <v>288</v>
+      </c>
+      <c r="JR1" t="s">
+        <v>289</v>
+      </c>
+      <c r="JS1" t="s">
+        <v>290</v>
+      </c>
+      <c r="JT1" t="s">
+        <v>291</v>
+      </c>
+      <c r="JU1" t="s">
+        <v>292</v>
+      </c>
+      <c r="JV1" t="s">
+        <v>293</v>
+      </c>
+      <c r="JW1" t="s">
+        <v>294</v>
+      </c>
+      <c r="JX1" t="s">
+        <v>295</v>
+      </c>
+      <c r="JY1">
+        <v>3.6360000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:285" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L2" t="s">
+        <v>306</v>
+      </c>
+      <c r="M2" t="s">
+        <v>307</v>
+      </c>
+      <c r="N2" t="s">
+        <v>308</v>
+      </c>
+      <c r="O2" t="s">
+        <v>309</v>
+      </c>
+      <c r="P2" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>311</v>
+      </c>
+      <c r="R2" t="s">
+        <v>312</v>
+      </c>
+      <c r="S2" t="s">
+        <v>313</v>
+      </c>
+      <c r="T2" t="s">
+        <v>314</v>
+      </c>
+      <c r="U2" t="s">
+        <v>315</v>
+      </c>
+      <c r="V2" t="s">
+        <v>316</v>
+      </c>
+      <c r="W2" t="s">
+        <v>317</v>
+      </c>
+      <c r="X2" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>323</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>324</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>325</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>327</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>330</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>335</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>338</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>340</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>346</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>347</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>348</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>349</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>350</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>351</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>352</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>353</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>354</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>355</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>356</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>357</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>358</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>359</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>360</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>361</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>362</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>363</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>364</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>365</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>366</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>367</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>368</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>369</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>370</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>371</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>372</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>374</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>375</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>376</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>377</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>378</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>379</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>380</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>381</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>382</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>383</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>384</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>385</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>386</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>387</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>388</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>389</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>390</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>391</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>392</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>393</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>394</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>395</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>396</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>397</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>398</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>399</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>400</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>401</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>402</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>403</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>206</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>404</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>405</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>406</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>407</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>408</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>409</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>410</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>411</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>412</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>413</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>414</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>415</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>416</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>417</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>418</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>419</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>420</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>421</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>423</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>424</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>425</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>426</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>427</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>428</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>429</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>430</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>431</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>432</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>433</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>434</v>
+      </c>
+      <c r="EN2">
+        <v>3.6690999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/labs/lab1/results.xlsx
+++ b/labs/lab1/results.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="438">
   <si>
     <t>Epoch_28</t>
   </si>
@@ -1325,19 +1326,34 @@
   </si>
   <si>
     <t xml:space="preserve"> 3.6265loss</t>
+  </si>
+  <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Epoch_7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF0F0F0"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1360,8 +1376,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1642,15 +1660,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:V1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1687,14 +1708,29 @@
       <c r="V1" t="s">
         <v>5</v>
       </c>
+      <c r="Y1" t="s">
+        <v>437</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0.41649999999999998</v>
       </c>
+      <c r="C2">
+        <v>4584</v>
+      </c>
       <c r="D2">
         <v>0.42399999999999999</v>
       </c>
@@ -1713,12 +1749,21 @@
       <c r="J2">
         <v>0.42230000000000001</v>
       </c>
+      <c r="K2">
+        <v>4996</v>
+      </c>
       <c r="L2">
         <v>0.42159999999999997</v>
       </c>
+      <c r="M2">
+        <v>2105</v>
+      </c>
       <c r="N2">
         <v>0.41570000000000001</v>
       </c>
+      <c r="O2">
+        <v>1770</v>
+      </c>
       <c r="Q2">
         <v>0</v>
       </c>
@@ -1740,14 +1785,38 @@
       <c r="W2">
         <v>273</v>
       </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.41270000000000001</v>
+      </c>
+      <c r="AA2">
+        <v>3909</v>
+      </c>
+      <c r="AB2">
+        <v>0.42080000000000001</v>
+      </c>
+      <c r="AC2">
+        <v>2200</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.41449999999999998</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>1588</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>0.4153</v>
       </c>
+      <c r="C3">
+        <v>4022</v>
+      </c>
       <c r="D3">
         <v>0.43</v>
       </c>
@@ -1793,14 +1862,38 @@
       <c r="W3">
         <v>274</v>
       </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>0.4219</v>
+      </c>
+      <c r="AA3">
+        <v>5409</v>
+      </c>
+      <c r="AB3">
+        <v>0.4284</v>
+      </c>
+      <c r="AC3">
+        <v>3894</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0.41560000000000002</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>1497</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>0.42180000000000001</v>
       </c>
+      <c r="C4">
+        <v>2812</v>
+      </c>
       <c r="D4">
         <v>0.42380000000000001</v>
       </c>
@@ -1846,14 +1939,38 @@
       <c r="W4">
         <v>273</v>
       </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>0.40849999999999997</v>
+      </c>
+      <c r="AA4">
+        <v>4371</v>
+      </c>
+      <c r="AB4">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="AC4">
+        <v>4202</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0.4032</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>1477</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>0.39960000000000001</v>
       </c>
+      <c r="C5">
+        <v>3764</v>
+      </c>
       <c r="D5">
         <v>0.43130000000000002</v>
       </c>
@@ -1896,14 +2013,38 @@
       <c r="W5">
         <v>273</v>
       </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <v>0.40260000000000001</v>
+      </c>
+      <c r="AA5">
+        <v>3308</v>
+      </c>
+      <c r="AB5">
+        <v>0.43169999999999997</v>
+      </c>
+      <c r="AC5">
+        <v>4125</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.43259999999999998</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>2148</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>0.40210000000000001</v>
       </c>
+      <c r="C6">
+        <v>3764</v>
+      </c>
       <c r="D6">
         <v>0.43030000000000002</v>
       </c>
@@ -1943,26 +2084,51 @@
       <c r="W6">
         <v>273</v>
       </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <v>0.40179999999999999</v>
+      </c>
+      <c r="AA6">
+        <v>3551</v>
+      </c>
+      <c r="AB6">
+        <v>0.42970000000000003</v>
+      </c>
+      <c r="AC6">
+        <v>3996</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0.43409999999999999</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>3512</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B7">
-        <f>AVERAGE(B2:B6)</f>
+        <f t="shared" ref="B7:G7" si="0">AVERAGE(B2:B6)</f>
         <v>0.41105999999999998</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>3789.2</v>
+      </c>
       <c r="D7">
-        <f>AVERAGE(D2:D6)</f>
+        <f t="shared" si="0"/>
         <v>0.42788000000000004</v>
       </c>
       <c r="E7">
-        <f>AVERAGE(E2:E6)</f>
+        <f t="shared" si="0"/>
         <v>2178.6</v>
       </c>
       <c r="F7">
-        <f>AVERAGE(F2:F6)</f>
+        <f t="shared" si="0"/>
         <v>0.42908000000000002</v>
       </c>
       <c r="G7">
-        <f>AVERAGE(G2:G6)</f>
+        <f t="shared" si="0"/>
         <v>1843.6</v>
       </c>
       <c r="J7">
@@ -1999,7 +2165,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0.41105999999999998</v>
       </c>
@@ -2028,7 +2194,7 @@
         <v>0.42400000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="S9">
         <v>0.34758</v>
       </c>
@@ -2039,7 +2205,7 @@
         <v>0.42400000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -2050,7 +2216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32</v>
       </c>
@@ -2063,8 +2229,17 @@
       <c r="D11">
         <v>0.34758</v>
       </c>
+      <c r="H11">
+        <v>3789.2</v>
+      </c>
+      <c r="I11">
+        <v>2178.6</v>
+      </c>
+      <c r="J11">
+        <v>1843.6</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>64</v>
       </c>
@@ -2078,7 +2253,7 @@
         <v>0.42864000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>80</v>
       </c>
@@ -2092,7 +2267,7 @@
         <v>0.42400000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>6</v>
       </c>
@@ -2103,7 +2278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>32</v>
       </c>
@@ -2161,10 +2336,10 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>0.40210000000000001</v>
+        <v>3789.2</v>
       </c>
       <c r="C21">
-        <v>8.9800000000000005E-2</v>
+        <v>4996</v>
       </c>
       <c r="D21">
         <v>538</v>
@@ -2175,10 +2350,10 @@
         <v>12</v>
       </c>
       <c r="B22">
-        <v>0.43030000000000002</v>
+        <v>2178.6</v>
       </c>
       <c r="C22">
-        <v>0.42949999999999999</v>
+        <v>2105</v>
       </c>
       <c r="D22">
         <v>291</v>
@@ -2189,10 +2364,10 @@
         <v>13</v>
       </c>
       <c r="B23">
-        <v>0.43030000000000002</v>
+        <v>1843.6</v>
       </c>
       <c r="C23">
-        <v>0.43530000000000002</v>
+        <v>1770</v>
       </c>
       <c r="D23">
         <v>273</v>
@@ -3508,4 +3683,59 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>114</v>
+      </c>
+      <c r="B2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/labs/lab1/results.xlsx
+++ b/labs/lab1/results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="441">
   <si>
     <t>Epoch_28</t>
   </si>
@@ -1335,25 +1335,28 @@
   </si>
   <si>
     <t>Epoch_7</t>
+  </si>
+  <si>
+    <t>CPU with 7 threads</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>training time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFF0F0F0"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1376,10 +1379,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1662,13 +1663,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -1750,13 +1754,13 @@
         <v>0.42230000000000001</v>
       </c>
       <c r="K2">
-        <v>4996</v>
+        <v>4995</v>
       </c>
       <c r="L2">
         <v>0.42159999999999997</v>
       </c>
       <c r="M2">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="N2">
         <v>0.41570000000000001</v>
@@ -1800,10 +1804,10 @@
       <c r="AC2">
         <v>2200</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AD2">
         <v>0.41449999999999998</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AE2">
         <v>1588</v>
       </c>
     </row>
@@ -1835,12 +1839,21 @@
       <c r="J3">
         <v>0.42009999999999997</v>
       </c>
+      <c r="K3">
+        <v>5641</v>
+      </c>
       <c r="L3">
         <v>0.42759999999999998</v>
       </c>
+      <c r="M3">
+        <v>2282</v>
+      </c>
       <c r="N3">
         <v>0.42599999999999999</v>
       </c>
+      <c r="O3">
+        <v>1795</v>
+      </c>
       <c r="Q3">
         <v>1</v>
       </c>
@@ -1877,10 +1890,10 @@
       <c r="AC3">
         <v>3894</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3">
         <v>0.41560000000000002</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AE3">
         <v>1497</v>
       </c>
     </row>
@@ -1912,12 +1925,21 @@
       <c r="J4">
         <v>8.9800000000000005E-2</v>
       </c>
+      <c r="K4">
+        <v>5102</v>
+      </c>
       <c r="L4">
         <v>0.42499999999999999</v>
       </c>
+      <c r="M4">
+        <v>3601</v>
+      </c>
       <c r="N4">
         <v>0.42959999999999998</v>
       </c>
+      <c r="O4">
+        <v>1936</v>
+      </c>
       <c r="Q4">
         <v>2</v>
       </c>
@@ -1954,10 +1976,10 @@
       <c r="AC4">
         <v>4202</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD4">
         <v>0.4032</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AE4">
         <v>1477</v>
       </c>
     </row>
@@ -1986,12 +2008,21 @@
       <c r="I5">
         <v>3</v>
       </c>
+      <c r="K5">
+        <v>5202</v>
+      </c>
       <c r="L5">
         <v>0.42949999999999999</v>
       </c>
+      <c r="M5">
+        <v>4059</v>
+      </c>
       <c r="N5">
         <v>0.42470000000000002</v>
       </c>
+      <c r="O5">
+        <v>2342</v>
+      </c>
       <c r="Q5">
         <v>3</v>
       </c>
@@ -2028,10 +2059,10 @@
       <c r="AC5">
         <v>4125</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5">
         <v>0.43259999999999998</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AE5">
         <v>2148</v>
       </c>
     </row>
@@ -2060,9 +2091,15 @@
       <c r="I6">
         <v>4</v>
       </c>
+      <c r="M6">
+        <v>3880</v>
+      </c>
       <c r="N6">
         <v>0.43530000000000002</v>
       </c>
+      <c r="O6">
+        <v>2350</v>
+      </c>
       <c r="Q6">
         <v>4</v>
       </c>
@@ -2099,10 +2136,10 @@
       <c r="AC6">
         <v>3996</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6">
         <v>0.43409999999999999</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AE6">
         <v>3512</v>
       </c>
     </row>
@@ -2135,14 +2172,26 @@
         <f>AVERAGE(J2:J6)</f>
         <v>0.31073333333333336</v>
       </c>
+      <c r="K7">
+        <f>AVERAGE(K2:K6)</f>
+        <v>5235</v>
+      </c>
       <c r="L7">
         <f>AVERAGE(L2:L6)</f>
         <v>0.425925</v>
       </c>
+      <c r="M7">
+        <f>AVERAGE(M2:M6)</f>
+        <v>3185.2</v>
+      </c>
       <c r="N7">
         <f>AVERAGE(N2:N6)</f>
         <v>0.42626000000000008</v>
       </c>
+      <c r="O7">
+        <f>AVERAGE(O2:O6)</f>
+        <v>2038.6</v>
+      </c>
       <c r="R7">
         <f>AVERAGE(R2:R6)</f>
         <v>0.34758</v>
@@ -2163,6 +2212,18 @@
       </c>
       <c r="W7">
         <v>273</v>
+      </c>
+      <c r="AA7">
+        <f>AVERAGE(AA2:AA6)</f>
+        <v>4109.6000000000004</v>
+      </c>
+      <c r="AC7">
+        <f>AVERAGE(AC2:AC6)</f>
+        <v>3683.4</v>
+      </c>
+      <c r="AE7">
+        <f>AVERAGE(AE2:AE6)</f>
+        <v>2044.4</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -2204,6 +2265,15 @@
       <c r="U9">
         <v>0.42400000000000004</v>
       </c>
+      <c r="AA9">
+        <v>4109.6000000000004</v>
+      </c>
+      <c r="AB9">
+        <v>3683.4</v>
+      </c>
+      <c r="AC9">
+        <v>2044.4</v>
+      </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -2238,6 +2308,15 @@
       <c r="J11">
         <v>1843.6</v>
       </c>
+      <c r="K11">
+        <v>5235</v>
+      </c>
+      <c r="L11">
+        <v>3185.2</v>
+      </c>
+      <c r="M11">
+        <v>2038.6</v>
+      </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2269,107 +2348,164 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>6</v>
+        <v>438</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>8</v>
+      </c>
+      <c r="J15" t="s">
+        <v>439</v>
+      </c>
+      <c r="K15" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>32</v>
+      <c r="A16" t="s">
+        <v>11</v>
       </c>
       <c r="B16">
+        <v>0.40179999999999999</v>
+      </c>
+      <c r="C16">
         <v>0.40210000000000001</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>8.9800000000000005E-2</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.1077</v>
       </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16">
+        <v>0.1077</v>
+      </c>
+      <c r="K16">
+        <v>538</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>64</v>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
       </c>
       <c r="B17">
+        <v>0.42970000000000003</v>
+      </c>
+      <c r="C17">
         <v>0.43030000000000002</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.42949999999999999</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.43280000000000002</v>
       </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17">
+        <v>0.43280000000000002</v>
+      </c>
+      <c r="K17">
+        <v>291</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>80</v>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
       </c>
       <c r="B18">
+        <v>0.43409999999999999</v>
+      </c>
+      <c r="C18">
         <v>0.43030000000000002</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.43530000000000002</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.43230000000000002</v>
       </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18">
+        <v>0.43230000000000002</v>
+      </c>
+      <c r="K18">
+        <v>273</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>438</v>
+      </c>
+      <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>10</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
       <c r="B21">
+        <v>4109.6000000000004</v>
+      </c>
+      <c r="C21">
         <v>3789.2</v>
       </c>
-      <c r="C21">
-        <v>4996</v>
-      </c>
       <c r="D21">
+        <v>5235</v>
+      </c>
+      <c r="E21">
         <v>538</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22">
+        <v>3683.4</v>
+      </c>
+      <c r="C22">
         <v>2178.6</v>
       </c>
-      <c r="C22">
-        <v>2105</v>
-      </c>
       <c r="D22">
+        <v>3185.2</v>
+      </c>
+      <c r="E22">
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
       <c r="B23">
+        <v>2044.4</v>
+      </c>
+      <c r="C23">
         <v>1843.6</v>
       </c>
-      <c r="C23">
-        <v>1770</v>
-      </c>
       <c r="D23">
+        <v>2038.6</v>
+      </c>
+      <c r="E23">
         <v>273</v>
       </c>
     </row>

--- a/labs/lab1/results.xlsx
+++ b/labs/lab1/results.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7357A67-163F-42BD-A9CB-D0F086E48705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1349,7 +1356,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1379,8 +1386,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1660,11 +1668,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="B25" sqref="B25:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2169,27 +2177,27 @@
         <v>1843.6</v>
       </c>
       <c r="J7">
-        <f>AVERAGE(J2:J6)</f>
+        <f t="shared" ref="J7:O7" si="1">AVERAGE(J2:J6)</f>
         <v>0.31073333333333336</v>
       </c>
       <c r="K7">
-        <f>AVERAGE(K2:K6)</f>
+        <f t="shared" si="1"/>
         <v>5235</v>
       </c>
       <c r="L7">
-        <f>AVERAGE(L2:L6)</f>
+        <f t="shared" si="1"/>
         <v>0.425925</v>
       </c>
       <c r="M7">
-        <f>AVERAGE(M2:M6)</f>
+        <f t="shared" si="1"/>
         <v>3185.2</v>
       </c>
       <c r="N7">
-        <f>AVERAGE(N2:N6)</f>
+        <f t="shared" si="1"/>
         <v>0.42626000000000008</v>
       </c>
       <c r="O7">
-        <f>AVERAGE(O2:O6)</f>
+        <f t="shared" si="1"/>
         <v>2038.6</v>
       </c>
       <c r="R7">
@@ -2507,6 +2515,60 @@
       </c>
       <c r="E23">
         <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <f>11294/B21</f>
+        <v>2.7481993381350982</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" ref="C25:E25" si="2">11294/C21</f>
+        <v>2.9805763749604139</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1574021012416429</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="2"/>
+        <v>20.992565055762082</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <f t="shared" ref="B26:E26" si="3">11294/B22</f>
+        <v>3.0661888472606829</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="3"/>
+        <v>5.1840631598274127</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="3"/>
+        <v>3.545774205701369</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="3"/>
+        <v>38.81099656357388</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <f t="shared" ref="B27:E27" si="4">11294/B23</f>
+        <v>5.5243592252005476</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="4"/>
+        <v>6.1260577131698852</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="4"/>
+        <v>5.5400765231040916</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="4"/>
+        <v>41.369963369963372</v>
       </c>
     </row>
   </sheetData>
@@ -2516,7 +2578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:JY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3822,7 +3884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
